--- a/ocms/src/test/resources/DownloadedFiles/CEP Event Mapping (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/CEP Event Mapping (1).xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2">
-        <v>43613.47453703704</v>
+        <v>43616.56202546296</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/CEP Event Mapping (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/CEP Event Mapping (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">CEP Event</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">1919</t>
   </si>
   <si>
-    <t xml:space="preserve">Product OCM Updated</t>
+    <t xml:space="preserve">Product OCM</t>
   </si>
   <si>
     <t xml:space="preserve">02</t>
@@ -64,13 +64,7 @@
     <t xml:space="preserve">BENGTETH\Administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">31/05/2019 13:29:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product OCM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/09/2019 14:41:54</t>
+    <t xml:space="preserve">04/09/2019 11:18:15</t>
   </si>
 </sst>
 </file>
@@ -147,7 +141,7 @@
   <sheetFormatPr x14ac:dyDescent="0.25" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="1" width="9.714285714285714" bestFit="1"/>
-    <col min="2" max="2" customWidth="1" width="19.714285714285715" bestFit="1"/>
+    <col min="2" max="2" customWidth="1" width="11.714285714285714" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="12.714285714285714" bestFit="1"/>
     <col min="4" max="4" customWidth="1" width="4.714285714285714" bestFit="1"/>
     <col min="5" max="5" customWidth="1" width="13.714285714285714" bestFit="1"/>
@@ -208,32 +202,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
